--- a/Account_starts_by_DD_and_profit/optimization_filtered.xlsx
+++ b/Account_starts_by_DD_and_profit/optimization_filtered.xlsx
@@ -441,7 +441,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="E2">
         <v>45183</v>
@@ -467,7 +467,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="E3">
         <v>45183</v>
@@ -519,7 +519,7 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="E5">
         <v>45183</v>
